--- a/hms/testdata/HMS_Data.xlsx
+++ b/hms/testdata/HMS_Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gulsh\eclipse-workspace\Project\hms\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gulsh\git\GUIFramework\hms\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BBD25C3-7D35-4760-955C-FD72F00FB54F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F6FCFC-DF8F-44E2-ACC4-2DB340A7F850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{B6EB7A27-B348-4AC5-9CEA-DA2E98F64C81}"/>
   </bookViews>
@@ -103,12 +103,6 @@
     <t>Confirm Password</t>
   </si>
   <si>
-    <t>Dr. Jane Doe</t>
-  </si>
-  <si>
-    <t>jane.doe@lifelinkhospital.com</t>
-  </si>
-  <si>
     <t>Address</t>
   </si>
   <si>
@@ -124,7 +118,13 @@
     <t>doctor@123</t>
   </si>
   <si>
-    <t>5000</t>
+    <t>Dr. Robert Downey Jr.</t>
+  </si>
+  <si>
+    <t>RobertDowneyJr.</t>
+  </si>
+  <si>
+    <t>50000</t>
   </si>
 </sst>
 </file>
@@ -201,15 +201,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -527,7 +532,7 @@
   <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -536,82 +541,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="A12" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="A13" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="A14" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="A15" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="A16" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -625,92 +630,92 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.77734375" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5546875" customWidth="1"/>
     <col min="3" max="3" width="21.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="33.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="E2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" t="s">
-        <v>27</v>
+      <c r="G2" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B3" s="3"/>
-      <c r="C3" s="5"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="4"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B4" s="3"/>
-      <c r="C4" s="5"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="4"/>
       <c r="M4" s="1"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="5"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="4"/>
       <c r="M5" s="1"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B6" s="3"/>
-      <c r="C6" s="5"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="4"/>
       <c r="M6" s="1"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B7" s="3"/>
-      <c r="C7" s="5"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="4"/>
       <c r="M7" s="1"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
